--- a/Misc/Excel/ClipCfg.xlsx
+++ b/Misc/Excel/ClipCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33283D9A-4EFC-7C47-8A37-E21CFA781A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE584F2-733C-564F-863C-A260BBA7169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="3160" windowWidth="12760" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
+    <workbookView xWindow="4680" yWindow="760" windowWidth="29880" windowHeight="19760" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="ClipCfg" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>${name}</t>
   </si>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>Magic_04_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bIsIK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用脚部IK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E055C1F-8A07-9242-A373-CC02569C2EF4}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F33"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -635,7 +643,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +665,11 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,8 +691,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,8 +717,11 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,8 +741,11 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,7 +758,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -758,8 +778,11 @@
       <c r="G6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -778,8 +801,11 @@
       <c r="G7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -799,8 +825,11 @@
       <c r="G8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -819,8 +848,11 @@
       <c r="G9" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -840,8 +872,11 @@
       <c r="G10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -861,7 +896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -882,7 +917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -902,7 +937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,7 +958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -943,7 +978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>

--- a/Misc/Excel/ClipCfg.xlsx
+++ b/Misc/Excel/ClipCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>${name}</t>
   </si>
@@ -35,7 +35,7 @@
     <t>nClipID</t>
   </si>
   <si>
-    <t>strDesc</t>
+    <t>strDescEditor</t>
   </si>
   <si>
     <t>bIsLoop</t>
@@ -95,6 +95,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>${key}</t>
   </si>
   <si>
@@ -197,16 +200,28 @@
     <t>302</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Attack_04</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>Attack_05</t>
+  </si>
+  <si>
     <t>2.4</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Attack_05</t>
+    <t>Attack_06</t>
   </si>
   <si>
     <t>2.533334</t>
@@ -215,7 +230,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>Attack_06</t>
+    <t>Battle_run</t>
   </si>
   <si>
     <t>3.6</t>
@@ -224,13 +239,13 @@
     <t>23</t>
   </si>
   <si>
-    <t>Battle_run</t>
+    <t>Jump_inplace</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>Jump_inplace</t>
+    <t>Jump_fall_loop</t>
   </si>
   <si>
     <t>3.533334</t>
@@ -242,7 +257,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>Jump_fall_loop</t>
+    <t>Jump_fall_end_H_Battle</t>
   </si>
   <si>
     <t>4.666667</t>
@@ -251,7 +266,7 @@
     <t>26</t>
   </si>
   <si>
-    <t>Jump_fall_end_H_Battle</t>
+    <t>Jump_fall_end_L_Battle</t>
   </si>
   <si>
     <t>0.6666667</t>
@@ -260,7 +275,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>Jump_fall_end_L_Battle</t>
+    <t>Magic_04_4</t>
   </si>
   <si>
     <t>0.8666667</t>
@@ -272,7 +287,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>Magic_04_4</t>
+    <t>Magic_04_5_Loop</t>
   </si>
   <si>
     <t>42</t>
@@ -281,7 +296,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>Magic_04_5_Loop</t>
+    <t>Magic_04_6</t>
   </si>
   <si>
     <t>1.833333</t>
@@ -293,7 +308,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>Magic_04_6</t>
+    <t>Magic_06_1</t>
   </si>
   <si>
     <t>1.466667</t>
@@ -302,7 +317,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>Magic_06_1</t>
+    <t>Magic_06_2</t>
   </si>
   <si>
     <t>0.3333333</t>
@@ -311,7 +326,7 @@
     <t>216</t>
   </si>
   <si>
-    <t>Magic_06_2</t>
+    <t>Magic_06_3</t>
   </si>
   <si>
     <t>0.4</t>
@@ -320,7 +335,7 @@
     <t>217</t>
   </si>
   <si>
-    <t>Magic_06_3</t>
+    <t>Magic_06_4</t>
   </si>
   <si>
     <t>1.666667</t>
@@ -332,7 +347,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>Magic_06_4</t>
+    <t>Magic_06_5</t>
   </si>
   <si>
     <t>2.2</t>
@@ -344,7 +359,7 @@
     <t>52</t>
   </si>
   <si>
-    <t>Magic_06_5</t>
+    <t>Magic_06_6</t>
   </si>
   <si>
     <t>2.733334</t>
@@ -356,7 +371,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>Magic_06_6</t>
+    <t>Accelerate</t>
   </si>
   <si>
     <t>0.2333333</t>
@@ -368,7 +383,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>Accelerate</t>
+    <t>Hit_light</t>
   </si>
   <si>
     <t>230</t>
@@ -377,7 +392,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>Hit_light</t>
+    <t>Sys_juqing_worship_01</t>
   </si>
   <si>
     <t>1.866667</t>
@@ -389,7 +404,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>Sys_juqing_worship_01</t>
+    <t>Anim_Magic_05_BD_01_1</t>
   </si>
   <si>
     <t>1.233333</t>
@@ -401,7 +416,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>Anim_Magic_05_BD_01_1</t>
+    <t>Anim_Magic_05_BD_01_2</t>
   </si>
   <si>
     <t>0.5</t>
@@ -413,7 +428,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>Anim_Magic_05_BD_01_2</t>
+    <t>skill2</t>
   </si>
   <si>
     <t>165</t>
@@ -422,7 +437,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>skill2</t>
+    <t>run</t>
   </si>
   <si>
     <t>3.5</t>
@@ -434,7 +449,7 @@
     <t>1004</t>
   </si>
   <si>
-    <t>run</t>
+    <t>Die</t>
   </si>
   <si>
     <t>2.5</t>
@@ -444,12 +459,6 @@
   </si>
   <si>
     <t>1005</t>
-  </si>
-  <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>2.3</t>
   </si>
   <si>
     <t>224</t>
@@ -1077,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,9 +1232,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1582,1058 +1588,1087 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="50"/>
-    <col min="4" max="4" width="10" customWidth="1" style="50"/>
+    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="49"/>
+    <col min="4" max="4" width="10" customWidth="1" style="49"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="51" t="s">
+      <c r="A6" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="D6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>24</v>
+      <c r="F6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="51" t="s">
+      <c r="C15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="50" t="s">
+      <c r="C16" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="F18" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="C19" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="F39" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>148</v>
-      </c>
       <c r="F41" s="49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" s="49" t="s">
         <v>149</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/ClipCfg.xlsx
+++ b/Misc/Excel/ClipCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>${name}</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>319</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>331</t>
   </si>
   <si>
     <t>Attack_05</t>
@@ -1086,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1241,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1588,7 +1600,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1596,1078 +1608,1102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="49"/>
-    <col min="4" max="4" width="10" customWidth="1" style="49"/>
+    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="50"/>
+    <col min="4" max="4" width="10" customWidth="1" style="50"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="49" t="s">
+      <c r="F8" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="50" t="s">
+      <c r="F9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="D10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="50" t="s">
+      <c r="D14" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="C16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="C17" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="D23" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="F23" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="51" t="s">
+      <c r="E24" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="49" t="s">
+      <c r="C27" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="49" t="s">
+      <c r="C28" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="50" t="s">
+      <c r="C29" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="E42" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="49" t="s">
+      <c r="F42" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="H42" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="49" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Misc/Excel/ClipCfg.xlsx
+++ b/Misc/Excel/ClipCfg.xlsx
@@ -113,7 +113,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1.333333</t>
+    <t>1.33333337</t>
   </si>
   <si>
     <t>11</t>
@@ -137,7 +137,7 @@
     <t>Rest_relax_01</t>
   </si>
   <si>
-    <t>2.666667</t>
+    <t>2.66666675</t>
   </si>
   <si>
     <t>13</t>
@@ -149,7 +149,7 @@
     <t>Rest_relax_02</t>
   </si>
   <si>
-    <t>4.466667</t>
+    <t>4.4666667</t>
   </si>
   <si>
     <t>14</t>
@@ -173,7 +173,7 @@
     <t>Attack_01</t>
   </si>
   <si>
-    <t>2.066667</t>
+    <t>2.06666684</t>
   </si>
   <si>
     <t>239</t>
@@ -185,7 +185,7 @@
     <t>Attack_02</t>
   </si>
   <si>
-    <t>1.366667</t>
+    <t>1.36666679</t>
   </si>
   <si>
     <t>154</t>
@@ -206,7 +206,7 @@
     <t>Attack_04</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>2.30000019</t>
   </si>
   <si>
     <t>319</t>
@@ -215,7 +215,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>5.00000048</t>
   </si>
   <si>
     <t>331</t>
@@ -233,7 +233,7 @@
     <t>Attack_06</t>
   </si>
   <si>
-    <t>2.533334</t>
+    <t>2.53333354</t>
   </si>
   <si>
     <t>22</t>
@@ -242,7 +242,7 @@
     <t>Battle_run</t>
   </si>
   <si>
-    <t>3.6</t>
+    <t>3.60000014</t>
   </si>
   <si>
     <t>23</t>
@@ -257,7 +257,7 @@
     <t>Jump_fall_loop</t>
   </si>
   <si>
-    <t>3.533334</t>
+    <t>3.53333354</t>
   </si>
   <si>
     <t>25</t>
@@ -287,7 +287,7 @@
     <t>Magic_04_4</t>
   </si>
   <si>
-    <t>0.8666667</t>
+    <t>0.866666734</t>
   </si>
   <si>
     <t>41</t>
@@ -308,7 +308,7 @@
     <t>Magic_04_6</t>
   </si>
   <si>
-    <t>1.833333</t>
+    <t>1.83333337</t>
   </si>
   <si>
     <t>43</t>
@@ -320,7 +320,7 @@
     <t>Magic_06_1</t>
   </si>
   <si>
-    <t>1.466667</t>
+    <t>1.4666667</t>
   </si>
   <si>
     <t>44</t>
@@ -329,7 +329,7 @@
     <t>Magic_06_2</t>
   </si>
   <si>
-    <t>0.3333333</t>
+    <t>0.333333343</t>
   </si>
   <si>
     <t>216</t>
@@ -338,7 +338,7 @@
     <t>Magic_06_3</t>
   </si>
   <si>
-    <t>0.4</t>
+    <t>0.400000036</t>
   </si>
   <si>
     <t>217</t>
@@ -347,7 +347,7 @@
     <t>Magic_06_4</t>
   </si>
   <si>
-    <t>1.666667</t>
+    <t>1.66666675</t>
   </si>
   <si>
     <t>218</t>
@@ -371,7 +371,7 @@
     <t>Magic_06_6</t>
   </si>
   <si>
-    <t>2.733334</t>
+    <t>2.73333359</t>
   </si>
   <si>
     <t>228</t>
@@ -383,7 +383,7 @@
     <t>Accelerate</t>
   </si>
   <si>
-    <t>0.2333333</t>
+    <t>0.233333349</t>
   </si>
   <si>
     <t>229</t>
@@ -404,7 +404,7 @@
     <t>Sys_juqing_worship_01</t>
   </si>
   <si>
-    <t>1.866667</t>
+    <t>1.86666679</t>
   </si>
   <si>
     <t>231</t>
@@ -416,7 +416,7 @@
     <t>Anim_Magic_05_BD_01_1</t>
   </si>
   <si>
-    <t>1.233333</t>
+    <t>1.23333335</t>
   </si>
   <si>
     <t>232</t>
@@ -449,7 +449,7 @@
     <t>run</t>
   </si>
   <si>
-    <t>3.5</t>
+    <t>3.50000024</t>
   </si>
   <si>
     <t>326</t>
@@ -461,7 +461,7 @@
     <t>Die</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>2.50000024</t>
   </si>
   <si>
     <t>223</t>
@@ -476,7 +476,7 @@
     <t>1006</t>
   </si>
   <si>
-    <t>3.333333</t>
+    <t>3.33333349</t>
   </si>
   <si>
     <t>211</t>
@@ -491,7 +491,7 @@
     <t>1008</t>
   </si>
   <si>
-    <t>1.733333</t>
+    <t>1.73333347</t>
   </si>
   <si>
     <t>152</t>
@@ -1095,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,6 +1241,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1608,1102 +1611,1102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="50"/>
-    <col min="4" max="4" width="10" customWidth="1" style="50"/>
+    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="51"/>
+    <col min="4" max="4" width="10" customWidth="1" style="51"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="D6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="A8" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="51" t="s">
+      <c r="D8" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="50" t="s">
+      <c r="F8" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="51" t="s">
+      <c r="D10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="50" t="s">
+      <c r="F10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="50" t="s">
+      <c r="D11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="52" t="s">
+      <c r="F13" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="51" t="s">
+      <c r="D14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="50" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="52" t="s">
+      <c r="F15" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="50" t="s">
+      <c r="D17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="52" t="s">
+      <c r="F17" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="50" t="s">
+      <c r="D18" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="52" t="s">
+      <c r="F18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="50" t="s">
+      <c r="D20" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="52" t="s">
+      <c r="F20" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="50" t="s">
+      <c r="D21" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="52" t="s">
+      <c r="F21" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="50" t="s">
+      <c r="D22" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="52" t="s">
+      <c r="F22" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="F23" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="52" t="s">
+      <c r="F24" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="50" t="s">
+      <c r="F25" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="50" t="s">
+      <c r="F26" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="50" t="s">
+      <c r="F28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="50" t="s">
+      <c r="D30" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="50" t="s">
+      <c r="F30" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="50" t="s">
+      <c r="D31" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="52" t="s">
+      <c r="F31" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="50" t="s">
+      <c r="D32" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="52" t="s">
+      <c r="F32" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="50" t="s">
+      <c r="D33" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="52" t="s">
+      <c r="F33" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="50" t="s">
+      <c r="F34" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="50" t="s">
+      <c r="D35" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="50" t="s">
+      <c r="F35" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="50" t="s">
+      <c r="D36" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="50" t="s">
+      <c r="F36" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="50" t="s">
+      <c r="D37" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="50" t="s">
+      <c r="F37" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="50" t="s">
+      <c r="D38" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="50" t="s">
+      <c r="F38" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="50" t="s">
+      <c r="D39" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="50" t="s">
+      <c r="F39" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="50" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="50" t="s">
+      <c r="F40" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="50" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="50" t="s">
+      <c r="F41" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="50" t="s">
+      <c r="F42" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="49" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="49" t="s">
+      <c r="F43" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="49" t="s">
+      <c r="H43" s="50" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Misc/Excel/ClipCfg.xlsx
+++ b/Misc/Excel/ClipCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>${name}</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>5.00000048</t>
@@ -1879,7 +1882,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>49</v>
@@ -1905,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G12" s="53" t="s">
         <v>53</v>
@@ -1973,18 +1976,20 @@
       <c r="B15" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="51" t="s">
+        <v>62</v>
+      </c>
       <c r="D15" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>27</v>
@@ -1998,19 +2003,19 @@
         <v>29</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>27</v>
@@ -2024,19 +2029,19 @@
         <v>33</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>27</v>
@@ -2050,19 +2055,19 @@
         <v>37</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>27</v>
@@ -2076,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>27</v>
@@ -2088,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" s="51" t="s">
         <v>27</v>
@@ -2102,19 +2107,19 @@
         <v>45</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" s="51" t="s">
         <v>27</v>
@@ -2125,22 +2130,22 @@
         <v>24</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="51" t="s">
         <v>27</v>
@@ -2151,22 +2156,22 @@
         <v>24</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>27</v>
@@ -2177,22 +2182,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="51" t="s">
         <v>27</v>
@@ -2203,22 +2208,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="51" t="s">
         <v>27</v>
@@ -2229,22 +2234,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="51" t="s">
         <v>27</v>
@@ -2255,22 +2260,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" s="51" t="s">
         <v>27</v>
@@ -2281,22 +2286,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" s="51" t="s">
         <v>27</v>
@@ -2307,22 +2312,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="51" t="s">
         <v>27</v>
@@ -2333,22 +2338,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H29" s="51" t="s">
         <v>27</v>
@@ -2359,22 +2364,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H30" s="51" t="s">
         <v>27</v>
@@ -2385,22 +2390,22 @@
         <v>24</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H31" s="51" t="s">
         <v>27</v>
@@ -2411,22 +2416,22 @@
         <v>24</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F32" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H32" s="51" t="s">
         <v>27</v>
@@ -2437,22 +2442,22 @@
         <v>24</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H33" s="51" t="s">
         <v>27</v>
@@ -2463,22 +2468,22 @@
         <v>24</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H34" s="51" t="s">
         <v>27</v>
@@ -2489,22 +2494,22 @@
         <v>24</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H35" s="51" t="s">
         <v>27</v>
@@ -2515,22 +2520,22 @@
         <v>24</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H36" s="51" t="s">
         <v>27</v>
@@ -2541,22 +2546,22 @@
         <v>24</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F37" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" s="51" t="s">
         <v>27</v>
@@ -2567,22 +2572,22 @@
         <v>24</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H38" s="51" t="s">
         <v>27</v>
@@ -2593,22 +2598,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F39" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H39" s="51" t="s">
         <v>27</v>
@@ -2619,9 +2624,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>62</v>
+      </c>
       <c r="D40" s="51" t="s">
         <v>27</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>34</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H40" s="51" t="s">
         <v>27</v>
@@ -2643,20 +2650,22 @@
         <v>24</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="51"/>
+        <v>149</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>62</v>
+      </c>
       <c r="D41" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F41" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H41" s="51" t="s">
         <v>27</v>
@@ -2667,20 +2676,22 @@
         <v>24</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="51"/>
+        <v>152</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>62</v>
+      </c>
       <c r="D42" s="51" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H42" s="51" t="s">
         <v>27</v>
@@ -2691,20 +2702,22 @@
         <v>24</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="51"/>
+        <v>154</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>62</v>
+      </c>
       <c r="D43" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F43" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H43" s="50" t="s">
         <v>27</v>

--- a/Misc/Excel/ClipCfg.xlsx
+++ b/Misc/Excel/ClipCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>${name}</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2.33333349</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.36666679</t>
+  </si>
+  <si>
+    <t>176</t>
   </si>
   <si>
     <t>Jump_fall_end_L_Battle</t>
@@ -1098,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1262,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1606,7 +1630,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1614,1112 +1638,1164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="51"/>
-    <col min="4" max="4" width="10" customWidth="1" style="51"/>
+    <col min="3" max="3" width="37.3583333333333" customWidth="1" style="53"/>
+    <col min="4" max="4" width="10" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="51" t="s">
+      <c r="D7" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="F7" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="A8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="51" t="s">
+      <c r="D9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="52" t="s">
+      <c r="F9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="51" t="s">
+      <c r="D11" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="F11" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="53" t="s">
+      <c r="F12" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="51" t="s">
+      <c r="D13" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="53" t="s">
+      <c r="F13" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="F14" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="51" t="s">
+      <c r="D15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="51" t="s">
+      <c r="D16" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="53" t="s">
+      <c r="F16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="51" t="s">
+      <c r="D17" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="53" t="s">
+      <c r="F17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="51" t="s">
+      <c r="D18" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="53" t="s">
+      <c r="F18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="53" t="s">
+      <c r="F19" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="F20" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="51" t="s">
+      <c r="D21" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="52" t="s">
+      <c r="C24" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="F24" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="51" t="s">
+      <c r="E26" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="52" t="s">
+      <c r="F35" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="51" t="s">
+      <c r="E44" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="50" t="s">
+      <c r="D45" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="50" t="s">
         <v>27</v>
       </c>
     </row>
